--- a/0_Configuration/Allocation/Small_Dummy_survey_data.xlsx
+++ b/0_Configuration/Allocation/Small_Dummy_survey_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1aa06ab9054ed691/2020 ONWARDS/06_Delft/15_Y2Q1/01_Earthy/03_Scripts/Earthy4.2/0_Configuration/Allocation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uijte\Desktop\Earthy\Earthy4.2\0_Configuration\Allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{91833E82-28C2-4048-B6C4-66D9431C7963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D916C0D-22DA-CC4E-91AC-6893E827E8C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5965F9F-A877-4A96-9416-BB11E3DC0815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22240" yWindow="6220" windowWidth="22240" windowHeight="16180" xr2:uid="{37948527-6134-4B0F-9F98-E9BA84340B21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{37948527-6134-4B0F-9F98-E9BA84340B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Both shop and workshop</t>
-  </si>
-  <si>
-    <t>Daily</t>
   </si>
   <si>
     <t>Bierocracy</t>
@@ -626,25 +623,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA2F23A-A15A-404C-8BD7-B0CF1F5D48CF}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -688,7 +685,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>17</v>
       </c>
@@ -705,20 +702,20 @@
       <c r="F3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13">
+        <v>54</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="12">
-        <v>7</v>
-      </c>
-      <c r="I3" s="13">
-        <v>18</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>18</v>
       </c>
@@ -733,10 +730,10 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="15">
         <v>7</v>
@@ -745,10 +742,10 @@
         <v>45</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>19</v>
       </c>
@@ -763,10 +760,10 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="12">
         <v>7</v>
@@ -775,10 +772,10 @@
         <v>18</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -793,10 +790,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H6" s="15">
         <v>7</v>
@@ -805,10 +802,10 @@
         <v>27</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>21</v>
       </c>
@@ -823,10 +820,10 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="12">
         <v>7</v>
@@ -835,10 +832,10 @@
         <v>54</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>22</v>
       </c>
@@ -856,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H8" s="15">
         <v>7</v>
@@ -865,10 +862,10 @@
         <v>27</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>23</v>
       </c>
@@ -883,10 +880,10 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="12">
         <v>7</v>
@@ -895,10 +892,10 @@
         <v>36</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>24</v>
       </c>
@@ -913,22 +910,22 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="15">
         <v>7</v>
       </c>
       <c r="I10" s="16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>25</v>
       </c>
@@ -943,10 +940,10 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H11" s="12">
         <v>7</v>
@@ -955,10 +952,10 @@
         <v>54</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>26</v>
       </c>
@@ -976,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" s="15">
         <v>7</v>
@@ -985,10 +982,10 @@
         <v>18</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>27</v>
       </c>
@@ -1005,20 +1002,20 @@
       <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="12">
         <v>7</v>
       </c>
       <c r="I13" s="12">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>28</v>
       </c>
@@ -1033,10 +1030,10 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="15">
         <v>7</v>
@@ -1045,10 +1042,10 @@
         <v>36</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>29</v>
       </c>
@@ -1063,22 +1060,22 @@
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H15" s="12">
         <v>7</v>
       </c>
       <c r="I15" s="13">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>30</v>
       </c>
@@ -1093,10 +1090,10 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H16" s="15">
         <v>7</v>
@@ -1105,10 +1102,10 @@
         <v>45</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>31</v>
       </c>
@@ -1123,10 +1120,10 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="12">
         <v>7</v>
@@ -1135,10 +1132,10 @@
         <v>27</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>32</v>
       </c>
@@ -1156,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H18" s="15">
         <v>7</v>
@@ -1165,10 +1162,10 @@
         <v>18</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>33</v>
       </c>
@@ -1183,10 +1180,10 @@
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H19" s="12">
         <v>7</v>
@@ -1195,10 +1192,10 @@
         <v>27</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>34</v>
       </c>
@@ -1213,10 +1210,10 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20" s="15">
         <v>7</v>
@@ -1225,10 +1222,10 @@
         <v>36</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>35</v>
       </c>
@@ -1243,22 +1240,22 @@
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H21" s="12">
         <v>7</v>
       </c>
       <c r="I21" s="13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>36</v>
       </c>
@@ -1276,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="15">
         <v>7</v>
@@ -1285,10 +1282,10 @@
         <v>54</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>37</v>
       </c>
@@ -1303,10 +1300,10 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="12">
         <v>7</v>
@@ -1315,10 +1312,10 @@
         <v>18</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>38</v>
       </c>
@@ -1333,10 +1330,10 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H24" s="15">
         <v>7</v>
@@ -1345,10 +1342,10 @@
         <v>45</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>39</v>
       </c>
@@ -1363,10 +1360,10 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H25" s="12">
         <v>7</v>
@@ -1375,10 +1372,10 @@
         <v>36</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>40</v>
       </c>
@@ -1393,22 +1390,22 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H26" s="15">
         <v>7</v>
       </c>
       <c r="I26" s="16">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>41</v>
       </c>
@@ -1425,8 +1422,8 @@
       <c r="F27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>15</v>
+      <c r="G27" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H27" s="12">
         <v>7</v>
@@ -1435,10 +1432,10 @@
         <v>45</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>42</v>
       </c>
@@ -1453,10 +1450,10 @@
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H28" s="15">
         <v>7</v>
@@ -1465,10 +1462,10 @@
         <v>54</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>43</v>
       </c>
@@ -1483,10 +1480,10 @@
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H29" s="12">
         <v>7</v>
@@ -1495,10 +1492,10 @@
         <v>18</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>44</v>
       </c>
@@ -1513,10 +1510,10 @@
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30" s="15">
         <v>7</v>
@@ -1525,10 +1522,10 @@
         <v>27</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>45</v>
       </c>
@@ -1545,8 +1542,8 @@
       <c r="F31" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>12</v>
+      <c r="G31" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="12">
         <v>7</v>
@@ -1555,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>46</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="15">
         <v>7</v>
@@ -1585,10 +1582,10 @@
         <v>54</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>47</v>
       </c>
@@ -1603,22 +1600,22 @@
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H33" s="12">
         <v>7</v>
       </c>
       <c r="I33" s="13">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>48</v>
       </c>
@@ -1633,10 +1630,10 @@
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H34" s="15">
         <v>7</v>
@@ -1645,10 +1642,10 @@
         <v>18</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>49</v>
       </c>
@@ -1663,10 +1660,10 @@
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="H35" s="12">
         <v>7</v>
@@ -1675,7 +1672,7 @@
         <v>45</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
